--- a/school.xlsx
+++ b/school.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangfa\workspace\gitProject\andyBrake.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82EDE06-5CF5-479B-8216-B82509B50877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC2330E-8BF1-4EE7-885A-C5E1D4D65C35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="27465" windowHeight="17535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>学校名称</t>
     <rPh sb="0" eb="1">
@@ -1244,6 +1244,10 @@
   </si>
   <si>
     <t>现在短信登记预约参观，2020年9月的招生工作预计今年4月份开始，4月份之后按照短信等级的顺序进行预约参观，只有国际班，双语教学，每天有半天的外教。对这个学校的好处是挨着金苹果小学很近，和小学有很多互动活动，上金苹果小学的可能性要大些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月低打电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1631,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1746,6 +1750,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
       <c r="D8" t="s">
         <v>71</v>
       </c>
@@ -2038,6 +2045,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
